--- a/Documents/Examples/Devices/devices.xlsx
+++ b/Documents/Examples/Devices/devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/temporary/devices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36190BD4-1B34-A442-AAE1-37039BC9A5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7766D068-D99E-504B-A8F2-882B507ACAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51140" yWindow="500" windowWidth="45680" windowHeight="27220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="45680" windowHeight="27220" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -1670,13 +1670,7 @@
     <t>StudyDesignPopulation</t>
   </si>
   <si>
-    <t>@plannedAge/Range/@minValue</t>
-  </si>
-  <si>
     <t>max_age</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@maxValue</t>
   </si>
   <si>
     <t>StudyPopulation</t>
@@ -4075,6 +4069,12 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@minValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
   </si>
 </sst>
 </file>
@@ -6877,7 +6877,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>358</v>
@@ -6933,7 +6933,7 @@
         <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H2" t="s">
         <v>377</v>
@@ -6989,7 +6989,7 @@
         <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H3" t="s">
         <v>377</v>
@@ -7079,141 +7079,141 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>357</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>1291</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>1292</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>1293</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>1288</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>1289</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>1294</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>1295</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>1296</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>1297</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>1298</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>1299</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>1300</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>1301</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>1302</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>1303</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>1304</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>1305</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>1306</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C2" t="s">
         <v>1308</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1310</v>
       </c>
       <c r="D2" t="s">
         <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F2" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K2" t="s">
         <v>1312</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S2" t="s">
         <v>1319</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="U2" t="s">
         <v>1313</v>
       </c>
-      <c r="K2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>1321</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>1322</v>
       </c>
-      <c r="U2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>1323</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -7251,62 +7251,62 @@
         <v>26</v>
       </c>
       <c r="D1" s="38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>1273</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>1275</v>
-      </c>
       <c r="G1" s="41" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>1276</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="36" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>1279</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="F3" t="s">
         <v>1282</v>
       </c>
-      <c r="C3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1284</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
   </sheetData>
@@ -7342,33 +7342,33 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>356</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E2" t="s">
         <v>1328</v>
       </c>
-      <c r="B2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1330</v>
-      </c>
       <c r="F2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -8134,7 +8134,7 @@
         <v>465</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>466</v>
@@ -8152,7 +8152,7 @@
         <v>468</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -8710,7 +8710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -8721,7 +8721,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -8766,13 +8766,13 @@
       <c r="F2" t="s">
         <v>409</v>
       </c>
-      <c r="G2" t="s">
-        <v>538</v>
+      <c r="G2" s="8" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
         <v>537</v>
@@ -8780,13 +8780,13 @@
       <c r="F3" t="s">
         <v>409</v>
       </c>
-      <c r="G3" t="s">
-        <v>540</v>
+      <c r="G3" s="8" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
         <v>537</v>
@@ -8803,13 +8803,13 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" t="s">
         <v>542</v>
-      </c>
-      <c r="C5" t="s">
-        <v>543</v>
-      </c>
-      <c r="D5" t="s">
-        <v>544</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
@@ -8848,124 +8848,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="F1" s="52" t="s">
         <v>830</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>831</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -8974,2533 +8974,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -11543,124 +11543,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>830</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>831</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -11669,2533 +11669,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -14225,7 +14225,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>97</v>
@@ -14240,7 +14240,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14251,7 +14251,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -14288,16 +14288,16 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -14308,16 +14308,16 @@
         <v>234567891</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -14350,700 +14350,700 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -15079,24 +15079,24 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -15131,56 +15131,56 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>356</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E2" t="s">
         <v>1258</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1256</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C3" t="s">
         <v>1261</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F3" t="s">
         <v>1262</v>
       </c>
-      <c r="C3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1264</v>
-      </c>
       <c r="G3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
@@ -15205,70 +15205,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>1238</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1240</v>
-      </c>
       <c r="D1" s="18" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1245</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1248</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1253</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
@@ -15292,58 +15292,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" t="s">
         <v>820</v>
-      </c>
-      <c r="B2" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6" t="s">
         <v>825</v>
-      </c>
-      <c r="B6" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -15372,7 +15372,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -15380,7 +15380,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -15404,7 +15404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -15490,7 +15490,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>75</v>
@@ -15562,7 +15562,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>

--- a/Documents/Examples/Devices/devices.xlsx
+++ b/Documents/Examples/Devices/devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/temporary/devices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7766D068-D99E-504B-A8F2-882B507ACAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF943C-4572-8B4E-8BB0-A3BF070B4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="45680" windowHeight="27220" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17380" firstSheet="23" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="1339">
   <si>
     <t>name</t>
   </si>
@@ -1670,7 +1670,13 @@
     <t>StudyDesignPopulation</t>
   </si>
   <si>
+    <t>@plannedAge/Range/@minValue</t>
+  </si>
+  <si>
     <t>max_age</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@maxValue</t>
   </si>
   <si>
     <t>StudyPopulation</t>
@@ -4071,10 +4077,22 @@
     <t>spare</t>
   </si>
   <si>
-    <t>@plannedAge/Range/@minValue/Quantity/@value</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>1 mg</t>
+  </si>
+  <si>
+    <t>10mg</t>
+  </si>
+  <si>
+    <t>1 liter</t>
+  </si>
+  <si>
+    <t>personName</t>
+  </si>
+  <si>
+    <t>, Fred, Smith,</t>
   </si>
 </sst>
 </file>
@@ -6877,7 +6895,7 @@
         <v>27</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>358</v>
@@ -6933,7 +6951,7 @@
         <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H2" t="s">
         <v>377</v>
@@ -6989,7 +7007,7 @@
         <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="H3" t="s">
         <v>377</v>
@@ -7034,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BBE951-9F4A-1B4E-98D1-6D365611D65A}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="L1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7064,7 +7082,7 @@
     <col min="23" max="23" width="36.33203125" customWidth="1"/>
     <col min="24" max="24" width="31.1640625" customWidth="1"/>
     <col min="25" max="25" width="40.83203125" customWidth="1"/>
-    <col min="26" max="26" width="31.1640625" customWidth="1"/>
+    <col min="26" max="26" width="39.6640625" customWidth="1"/>
     <col min="27" max="28" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7079,141 +7097,150 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>357</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>1289</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>1285</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>1286</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>1287</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="W1" s="18" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="Y1" s="18" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="Z1" s="18" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B2" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D2" t="s">
         <v>375</v>
       </c>
       <c r="E2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F2" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="H2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="I2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="N2" t="s">
         <v>1317</v>
       </c>
-      <c r="J2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U2" t="s">
         <v>1315</v>
       </c>
-      <c r="O2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1313</v>
-      </c>
       <c r="V2" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="W2" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="X2" t="s">
-        <v>1323</v>
+        <v>1325</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -7251,62 +7278,62 @@
         <v>26</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>1278</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>1276</v>
-      </c>
       <c r="E2" s="36" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C3" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F3" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
@@ -7342,33 +7369,33 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>356</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C2" t="s">
         <v>1326</v>
       </c>
-      <c r="B2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1324</v>
-      </c>
       <c r="D2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E2" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
   </sheetData>
@@ -7441,66 +7468,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12" style="37" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" style="37" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8134,7 +8175,7 @@
         <v>465</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>466</v>
@@ -8152,7 +8193,7 @@
         <v>468</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -8710,7 +8751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -8721,7 +8762,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -8766,13 +8807,13 @@
       <c r="F2" t="s">
         <v>409</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>1331</v>
+      <c r="G2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
         <v>537</v>
@@ -8780,13 +8821,13 @@
       <c r="F3" t="s">
         <v>409</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>1332</v>
+      <c r="G3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E4" t="s">
         <v>537</v>
@@ -8803,13 +8844,13 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E5" t="s">
         <v>177</v>
@@ -8848,124 +8889,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -8974,2533 +9015,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="36" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F88" s="36" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F96" s="36" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F98" s="36" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F100" s="36" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F108" s="36" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F114" s="36" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="36" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="122" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F122" s="36" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F124" s="36" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="125" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="126" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="127" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="128" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="36" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="129" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F130" s="36" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="132" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="133" spans="1:6" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -11543,124 +11584,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E3" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E6" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>5</v>
@@ -11669,2533 +11710,2533 @@
         <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E10" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E13" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E21" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E23" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E24" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E25" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E29" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E30" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E31" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E34" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E35" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E36" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E37" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E38" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E39" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E40" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E41" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E45" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E46" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E49" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E50" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E52" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E53" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E54" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E57" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F57" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E58" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E60" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E61" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F62" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E63" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E64" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E65" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E66" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F66" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E67" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E68" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E69" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E70" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E72" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E75" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E76" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E77" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E78" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E80" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E82" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E83" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E84" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E85" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E86" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E87" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E89" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E90" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E91" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E92" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E93" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E96" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E98" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E99" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E100" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E101" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E104" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E105" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E106" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E107" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E108" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E110" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E111" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E112" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E113" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E114" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E115" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F115" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E116" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F116" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E117" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F118" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E119" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F119" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E121" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F121" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E122" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E123" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F123" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E124" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E125" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E126" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F126" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E127" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F127" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E128" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E129" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F129" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E130" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F130" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E131" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F131" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E132" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E133" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -14225,7 +14266,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>97</v>
@@ -14240,7 +14281,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14251,7 +14292,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
@@ -14288,16 +14329,16 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -14308,16 +14349,16 @@
         <v>234567891</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -14331,13 +14372,13 @@
   <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A133" sqref="A2:A133"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="115.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="182.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -14350,700 +14391,700 @@
     </row>
     <row r="2" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="36" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="36" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="36" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="36" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
@@ -15055,10 +15096,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62A79FA-4693-DC4C-8533-78F85FC1D1D4}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15066,9 +15107,10 @@
     <col min="1" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -15079,24 +15121,30 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1234</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D2" t="s">
         <v>1254</v>
       </c>
-      <c r="C2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1252</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
@@ -15131,56 +15179,56 @@
         <v>26</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>356</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D2" t="s">
         <v>1256</v>
       </c>
-      <c r="D2" t="s">
-        <v>1254</v>
-      </c>
       <c r="E2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F2" t="s">
         <v>1258</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E3" t="s">
         <v>1260</v>
       </c>
-      <c r="C3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1258</v>
-      </c>
       <c r="F3" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="G3" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -15205,70 +15253,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1239</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1247</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
@@ -15292,58 +15340,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B6" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B7" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -15372,7 +15420,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -15380,7 +15428,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -15490,7 +15538,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>75</v>
@@ -15562,7 +15610,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>

--- a/Documents/Examples/Devices/devices.xlsx
+++ b/Documents/Examples/Devices/devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/temporary/devices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF943C-4572-8B4E-8BB0-A3BF070B4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C33333-749A-F841-9A20-C454FD98F531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17380" firstSheet="23" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="500" windowWidth="45420" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1342">
   <si>
     <t>name</t>
   </si>
@@ -4093,6 +4093,15 @@
   </si>
   <si>
     <t>, Fred, Smith,</t>
+  </si>
+  <si>
+    <t>amendment</t>
+  </si>
+  <si>
+    <t>AMEND_DATE_A1</t>
+  </si>
+  <si>
+    <t>Amendment approval date</t>
   </si>
 </sst>
 </file>
@@ -4677,10 +4686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4903,6 +4912,29 @@
       </c>
       <c r="G18" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="39">
+        <v>38899</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7470,14 +7502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12" style="37" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="37" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
@@ -7526,8 +7558,8 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>37</v>
+      <c r="E2" s="11" t="s">
+        <v>1340</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>48</v>
@@ -15098,7 +15130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62A79FA-4693-DC4C-8533-78F85FC1D1D4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
